--- a/data/case1/20/Plm1_3.xlsx
+++ b/data/case1/20/Plm1_3.xlsx
@@ -62,258 +62,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.4290376384335417</v>
+        <v>-0.46475278436945189</v>
       </c>
       <c r="B1" s="0">
-        <v>0.42767900637380762</v>
+        <v>0.46297903389995554</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.31347623437631533</v>
+        <v>-0.36837178422067396</v>
       </c>
       <c r="B2" s="0">
-        <v>0.30962485922528238</v>
+        <v>0.36218180723016324</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.20666926767318827</v>
+        <v>-0.1855141216786933</v>
       </c>
       <c r="B3" s="0">
-        <v>0.20537954709007522</v>
+        <v>0.18426093660362852</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.19337954723716422</v>
+        <v>-0.17226093661854058</v>
       </c>
       <c r="B4" s="0">
-        <v>0.19219715088515343</v>
+        <v>0.17111543970966281</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.19226310579995687</v>
+        <v>-0.16511543975825038</v>
       </c>
       <c r="B5" s="0">
-        <v>0.18933405281984239</v>
+        <v>0.16280370070739902</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.088315806865056246</v>
+        <v>-0.061764083062814557</v>
       </c>
       <c r="B6" s="0">
-        <v>0.088205226370466683</v>
+        <v>0.061708958800599678</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.068205227016717274</v>
+        <v>-0.041708958861400802</v>
       </c>
       <c r="B7" s="0">
-        <v>0.067961739438811009</v>
+        <v>0.041617136087170437</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0479617400909369</v>
+        <v>-0.039506505505944922</v>
       </c>
       <c r="B8" s="0">
-        <v>0.047792682429032673</v>
+        <v>0.039376602456405507</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.04179268299326111</v>
+        <v>-0.03337660250776775</v>
       </c>
       <c r="B9" s="0">
-        <v>0.041662665986349268</v>
+        <v>0.033281023422827793</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.035662666556127931</v>
+        <v>-0.02728102347460748</v>
       </c>
       <c r="B10" s="0">
-        <v>0.035650508484948773</v>
+        <v>0.02726927030363413</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.031150509044142183</v>
+        <v>-0.022769270354295656</v>
       </c>
       <c r="B11" s="0">
-        <v>0.031127662439740078</v>
+        <v>0.022753742370305474</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.025127663010223511</v>
+        <v>-0.016753742422195295</v>
       </c>
       <c r="B12" s="0">
-        <v>0.025062359088023456</v>
+        <v>0.016721505914028878</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.019062359663248429</v>
+        <v>-0.010721505966242439</v>
       </c>
       <c r="B13" s="0">
-        <v>0.019047838586955912</v>
+        <v>0.010716978363936036</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0070478392037642834</v>
+        <v>0.0012830215793782074</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0070392186755015018</v>
+        <v>-0.0012843991699877932</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0090484857125092688</v>
+        <v>-0.02105549061710299</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0090442996436896905</v>
+        <v>0.021028862658519998</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.015028495698277133</v>
+        <v>-0.015028862710960045</v>
       </c>
       <c r="B16" s="0">
-        <v>0.01500446882430051</v>
+        <v>0.015004979411355368</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.009004469404437998</v>
+        <v>-0.0090049794640503222</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999993991476401</v>
+        <v>0.0089999999450345314</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.10420277251705912</v>
+        <v>-0.040956007396975025</v>
       </c>
       <c r="B18" s="0">
-        <v>0.10405268238774568</v>
+        <v>0.040935087900656697</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.027097150924530577</v>
+        <v>-0.03193508794789679</v>
       </c>
       <c r="B19" s="0">
-        <v>0.02701363441225002</v>
+        <v>0.031815163028243276</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.018013634931069333</v>
+        <v>-0.018014393137491425</v>
       </c>
       <c r="B20" s="0">
-        <v>0.018004300044511368</v>
+        <v>0.018004370528887037</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090043005640039198</v>
+        <v>-0.0090043705767053339</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999994800393779</v>
+        <v>0.0089999999521177543</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.093955592083652562</v>
+        <v>-0.16766768560077239</v>
       </c>
       <c r="B22" s="0">
-        <v>0.093640044048358462</v>
+        <v>0.16648952509683923</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084640044584546104</v>
+        <v>-0.08465009951342406</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084127895782948769</v>
+        <v>0.084130122745670555</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042127896549621902</v>
+        <v>-0.042130122821006033</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999999229285656</v>
+        <v>0.041999999924217768</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.095018246504750437</v>
+        <v>-0.095039617694943956</v>
       </c>
       <c r="B25" s="0">
-        <v>0.094766854790172772</v>
+        <v>0.094783157622686076</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.088766855342040429</v>
+        <v>-0.088783157673223201</v>
       </c>
       <c r="B26" s="0">
-        <v>0.088442408106743642</v>
+        <v>0.088454609816967178</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.082442408661532962</v>
+        <v>-0.082454609867846251</v>
       </c>
       <c r="B27" s="0">
-        <v>0.08132985095734302</v>
+        <v>0.081338114890909363</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.075329851524854163</v>
+        <v>-0.07533811494292042</v>
       </c>
       <c r="B28" s="0">
-        <v>0.07455900020132944</v>
+        <v>0.074564244196997365</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.062559000817342891</v>
+        <v>-0.062564244254270207</v>
       </c>
       <c r="B29" s="0">
-        <v>0.062177048102883603</v>
+        <v>0.062179543403157567</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.042177048776715242</v>
+        <v>-0.042179543466736469</v>
       </c>
       <c r="B30" s="0">
-        <v>0.042020369497488108</v>
+        <v>0.042022130249439904</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.027020370143272743</v>
+        <v>-0.027022130309935832</v>
       </c>
       <c r="B31" s="0">
-        <v>0.027000731995409311</v>
+        <v>0.027001216172456211</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060007326824980112</v>
+        <v>-0.0060012162374940559</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999994136124002</v>
+        <v>0.0059999999459776632</v>
       </c>
     </row>
   </sheetData>
